--- a/wsx2/cv_wsx.xlsx
+++ b/wsx2/cv_wsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/EPan/Repos/cv-shixiang/wsx2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F06C73B-25E3-6A47-BF54-86D3408A407D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674804C-C8B5-254E-9078-AFC9D05AEC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="580" windowWidth="34380" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6920" yWindow="500" windowWidth="41900" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="146">
   <si>
     <t>type</t>
   </si>
@@ -104,15 +104,9 @@
     <t>service</t>
   </si>
   <si>
-    <t>2016 --- present</t>
-  </si>
-  <si>
     <t>Reviewer</t>
   </si>
   <si>
-    <t>[ACM Transactions on Computer-Human Interaction (TOCHI)](http://tochi.acm.org/),  [ACM CHI Conference](https://sigchi.org/),  [Computer-Supported Cooperative Work and Social Computing](http://cscw.acm.org/2019/),  [International Journal of Human-Computer Studies](https://www.journals.elsevier.com/international-journal-of-human-computer-studies)</t>
-  </si>
-  <si>
     <t>talk</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>venue</t>
   </si>
   <si>
-    <t>venue_abbrev</t>
-  </si>
-  <si>
     <t>award</t>
   </si>
   <si>
@@ -223,10 +214,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Shixiang Wang, Mingming Jia, Zaoke He, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Oncogene</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -259,10 +246,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Shixiang Wang, Li An Cowley, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.mdpi.com/1420-3049/24/18/3214</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -271,10 +254,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Zaoke He, Shixiang Wang, Yuanyuan Shao, Jing Zhang, Xiaolin Wu, Yuxing Chen, Junhao Hu, Feng Zhang, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>iScience</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -339,9 +318,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Shixiang Wang, Xuan Wang, Tao Wu, Zaoke He, Huimin Li, Xiaoqin Sun, Xue-Song Liu</t>
-  </si>
-  <si>
     <t>bioRxiv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -367,9 +343,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Xuning Wang, Shixiang Wang, Yalin Han, Maolin Xu, Peng Li, Mu Ke, Zhipeng Teng, Pu Huang, Ziyan Diao, Yongfeng Yan, Qingyu Meng, Yanshen Kuang, Wei Zheng, Hongyi Liu, Xuesong Liu, Baoqing Jia</t>
-  </si>
-  <si>
     <t>International Journal of General Medicine</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -382,10 +355,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Zaoke He, Tao Wu, Shixiang Wang, Jing Zhang, Xiaoqin Sun, Ziyu Tao, Xiangyu Zhao, Huimin Li, Kai Wu, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S2589004221002534</t>
   </si>
   <si>
@@ -439,10 +408,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Yonglin Yi, Anqi Lin, Chaozheng Zhou, Jian Zhang, Shixiang Wang, Peng Luo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.biorxiv.org/content/10.1101/2022.04.13.488126v2.abstract</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -455,14 +420,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Jianfeng Li, Benben Miao, Shixiang Wang, Wei Dong, Houshi Xu, Chenchen Si, Wei Wang, Songqi Duan, Jiacheng Lou, Zhiwei Bao, Hailuan Zeng, Zengzeng Yang, Wenyan Cheng, Fei Zhao, Jianming Zeng, Xue-Song Liu, Renxie Wu, Yang Shen, Zhu Chen, Saijuan Chen, Mingjie Wang, Hiplot Consortium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ziyu Tao, Shixiang Wang, Chenxu Wu, Tao Wu, Xiangyu Zhao, Wei Ning, Guangshuai Wang, Jinyu Wang, Jing Chen, Kaixuan Diao, Fuxiang Chen, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>The repertoire of copy number alteration signatures in human cancer</t>
   </si>
   <si>
@@ -472,9 +429,6 @@
     <t>Briefings in Bioinformatics</t>
   </si>
   <si>
-    <t>Shixiang Wang, Yi Xiong, Longfei Zhao, Kai Gu, Yin Li, Fei Zhao, Jianfeng Li, Mingjie Wang, Haitao Wang, Ziyu Tao, Tao Wu, Yichao Zheng, Xuejun Li, Xue-Song Liu</t>
-  </si>
-  <si>
     <t>UCSCXenaShiny: an R/CRAN package for interactive analysis of UCSC Xena data</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -524,19 +478,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>National scholarship for doctoral students</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ShanghaiTech University Class A Postgraduate Academic Scholarship</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2021 Outstanding Doctoral Student Award of Shanghai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Supervisor: Yang Xia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Mingming Jia^†^, Zaoke He, Xue-Song Liu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Li An Cowley^†^, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Zaoke He^†^, Shixiang Wang^†^, Yuanyuan Shao^†^, Jing Zhang^†^, Xiaolin Wu, Yuxing Chen, Junhao Hu, Feng Zhang, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Xuning Wang^†^, Shixiang Wang^†^, Yalin Han, Maolin Xu, Peng Li, Mu Ke, Zhipeng Teng, Pu Huang, Ziyan Diao, Yongfeng Yan, Qingyu Meng, Yanshen Kuang, Wei Zheng, Hongyi Liu, Xuesong Liu, Baoqing Jia</t>
+  </si>
+  <si>
+    <t>Zaoke He^†^, Tao Wu^†^, Shixiang Wang^†^, Jing Zhang^†^, Xiaoqin Sun, Ziyu Tao, Xiangyu Zhao, Huimin Li, Kai Wu, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Jianfeng Li^†^, Benben Miao^†^, Shixiang Wang^†^, Wei Dong^†^, Houshi Xu^†^, Chenchen Si, Wei Wang, Songqi Duan, Jiacheng Lou, Zhiwei Bao, Hailuan Zeng, Zengzeng Yang, Wenyan Cheng, Fei Zhao, Jianming Zeng, Xue-Song Liu, Renxie Wu, Yang Shen, Zhu Chen, Saijuan Chen, Mingjie Wang, Hiplot Consortium</t>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Yi Xiong^†^, Longfei Zhao^†^, Kai Gu^†^, Yin Li, Fei Zhao, Jianfeng Li, Mingjie Wang, Haitao Wang, Ziyu Tao, Tao Wu, Yichao Zheng, Xuejun Li, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Xuan Wang^†^, Tao Wu^†^, Zaoke He, Huimin Li, Xiaoqin Sun, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Ziyu Tao^†^, Shixiang Wang^†^, Chenxu Wu^†^, Tao Wu, Xiangyu Zhao, Wei Ning, Guangshuai Wang, Jinyu Wang, Jing Chen, Kaixuan Diao, Fuxiang Chen, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Yonglin Yi, Anqi Lin, Chaozheng Zhou, Jian Zhang^#^, Shixiang Wang^#^, Peng Luo^#^</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher: Xue-Song Liu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Briefings in Bioinformatics](https://academic.oup.com/bib), [Frontiers in Immunology](https://www.frontiersin.org/journals/immunology), [Frontiers in Oncology](https://www.frontiersin.org/journals/oncology), [Frontiers in Cell and Developmental Biology](https://www.frontiersin.org/journals/cell-and-developmental-biology)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 --- present</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021 Outstanding Graduate Award of Shanghai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Scholarship for Doctoral Students</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -596,12 +602,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -901,7 +906,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -911,6 +916,8 @@
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
     <col min="16" max="16" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -975,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>44392</v>
@@ -987,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1007,13 +1014,13 @@
         <v>44378</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1021,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>41153</v>
@@ -1030,13 +1037,13 @@
         <v>42552</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1050,10 +1057,10 @@
         <v>44348</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1067,10 +1074,10 @@
         <v>44166</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1084,10 +1091,10 @@
         <v>44075</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1095,7 +1102,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2">
         <v>44562</v>
@@ -1104,13 +1111,13 @@
         <v>45291</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1118,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2">
         <v>42705</v>
@@ -1127,79 +1134,82 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>2020</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>2019</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
         <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>2019</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1224,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1223,7 +1233,7 @@
     <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" customWidth="1"/>
     <col min="9" max="9" width="55.5" customWidth="1"/>
   </cols>
@@ -1233,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1242,30 +1252,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1274,21 +1284,24 @@
         <v>43216</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -1297,21 +1310,21 @@
         <v>43682</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C4">
         <v>2019</v>
@@ -1320,21 +1333,21 @@
         <v>43712</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -1343,21 +1356,21 @@
         <v>43735</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -1366,21 +1379,24 @@
         <v>43784</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -1389,21 +1405,24 @@
         <v>43795</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -1412,21 +1431,21 @@
         <v>43800</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1435,21 +1454,24 @@
         <v>44121</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -1458,21 +1480,21 @@
         <v>44197</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -1481,21 +1503,21 @@
         <v>44309</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -1504,21 +1526,24 @@
         <v>44320</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -1527,21 +1552,21 @@
         <v>44470</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1550,21 +1575,24 @@
         <v>44747</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1573,21 +1601,24 @@
         <v>44576</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1596,21 +1627,21 @@
         <v>44680</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -1619,21 +1650,21 @@
         <v>44704</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -1642,21 +1673,21 @@
         <v>43831</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -1665,21 +1696,21 @@
         <v>44496</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1688,21 +1719,21 @@
         <v>44562</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>118</v>
+        <v>84</v>
+      </c>
+      <c r="I20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -1711,13 +1742,13 @@
         <v>44562</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/wsx2/cv_wsx.xlsx
+++ b/wsx2/cv_wsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/EPan/Repos/cv-shixiang/wsx2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674804C-C8B5-254E-9078-AFC9D05AEC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43CD8F0-A6AC-A640-BF51-A8CC004D1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="500" windowWidth="41900" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6920" yWindow="500" windowWidth="41900" windowHeight="26500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -502,9 +502,6 @@
     <t>Zaoke He^†^, Tao Wu^†^, Shixiang Wang^†^, Jing Zhang^†^, Xiaoqin Sun, Ziyu Tao, Xiangyu Zhao, Huimin Li, Kai Wu, Xue-Song Liu</t>
   </si>
   <si>
-    <t>Jianfeng Li^†^, Benben Miao^†^, Shixiang Wang^†^, Wei Dong^†^, Houshi Xu^†^, Chenchen Si, Wei Wang, Songqi Duan, Jiacheng Lou, Zhiwei Bao, Hailuan Zeng, Zengzeng Yang, Wenyan Cheng, Fei Zhao, Jianming Zeng, Xue-Song Liu, Renxie Wu, Yang Shen, Zhu Chen, Saijuan Chen, Mingjie Wang, Hiplot Consortium</t>
-  </si>
-  <si>
     <t>Shixiang Wang^†^, Yi Xiong^†^, Longfei Zhao^†^, Kai Gu^†^, Yin Li, Fei Zhao, Jianfeng Li, Mingjie Wang, Haitao Wang, Ziyu Tao, Tao Wu, Yichao Zheng, Xuejun Li, Xue-Song Liu</t>
   </si>
   <si>
@@ -543,6 +540,10 @@
   </si>
   <si>
     <t>National Scholarship for Doctoral Students</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jianfeng Li^†^, Benben Miao^†^, Shixiang Wang^†^, Wei Dong^†^, Houshi Xu^†^, Chenchen Si^†^, Wei Wang, Songqi Duan, Jiacheng Lou, Zhiwei Bao, Hailuan Zeng, Zengzeng Yang, Wenyan Cheng, Fei Zhao, Jianming Zeng, Xue-Song Liu, Renxie Wu, Yang Shen, Zhu Chen, Saijuan Chen, Mingjie Wang, Hiplot Consortium</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1057,7 +1058,7 @@
         <v>44348</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
         <v>56</v>
@@ -1074,7 +1075,7 @@
         <v>44166</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
@@ -1125,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2">
         <v>42705</v>
@@ -1137,7 +1138,7 @@
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1209,7 +1210,7 @@
         <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1223,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1258,7 +1259,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>34</v>
@@ -1290,7 +1291,7 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
         <v>59</v>
@@ -1385,7 +1386,7 @@
         <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
         <v>73</v>
@@ -1411,7 +1412,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
         <v>76</v>
@@ -1460,7 +1461,7 @@
         <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9" t="s">
         <v>89</v>
@@ -1532,7 +1533,7 @@
         <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
         <v>98</v>
@@ -1566,7 +1567,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1581,7 +1582,7 @@
         <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
         <v>110</v>
@@ -1592,7 +1593,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1607,7 +1608,7 @@
         <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
         <v>115</v>
@@ -1664,7 +1665,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -1710,7 +1711,7 @@
         <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1733,7 +1734,7 @@
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <v>2022</v>

--- a/wsx2/cv_wsx.xlsx
+++ b/wsx2/cv_wsx.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/EPan/Repos/cv-shixiang/wsx2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43CD8F0-A6AC-A640-BF51-A8CC004D1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="500" windowWidth="41900" windowHeight="26500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
     <sheet name="publications" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="150">
   <si>
     <t>type</t>
   </si>
@@ -80,42 +74,132 @@
     <t>research_positions</t>
   </si>
   <si>
+    <t>2021 --- present</t>
+  </si>
+  <si>
     <t>present</t>
   </si>
   <si>
     <t>Postdoctoral Researcher</t>
   </si>
   <si>
+    <t>Experiment Research Department, [Sun Yat-sen University Cancer Center](http://english.sysucc.org.cn/)</t>
+  </si>
+  <si>
+    <t>Supervisor: [Rui-Hua Xu](http://english.sysucc.org.cn/info_19.aspx?itemid=154)</t>
+  </si>
+  <si>
     <t>education</t>
   </si>
   <si>
     <t>2016 --- 2021</t>
   </si>
   <si>
+    <t>PhD in Cancer Biology</t>
+  </si>
+  <si>
+    <t>ShanghaiTech University &amp; Shanghai Institute of Biochemistry and Cell Biology, Chinese Academy of Sciences</t>
+  </si>
+  <si>
+    <t>Supervisor: [Xue-Song Liu](https://slst.shanghaitech.edu.cn/lxs_en/main.htm)</t>
+  </si>
+  <si>
+    <t>2012 --- 2016</t>
+  </si>
+  <si>
+    <t>B.E. in Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>University of Electronic Science and Technology of China</t>
+  </si>
+  <si>
+    <t>Supervisor: Yang Xia</t>
+  </si>
+  <si>
     <t>awards</t>
   </si>
   <si>
+    <t>2021 Outstanding Graduate Award of Shanghai</t>
+  </si>
+  <si>
+    <t>ShanghaiTech University</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
+    <t>National Scholarship for Doctoral Students</t>
+  </si>
+  <si>
+    <t>ShanghaiTech University Class A Postgraduate Academic Scholarship</t>
+  </si>
+  <si>
     <t>major_grants</t>
   </si>
   <si>
+    <t>2022 --- 2023</t>
+  </si>
+  <si>
+    <t>General Project, [China Postdoctoral Science Foundation](https://jj.chinapostdoctor.org.cn/website/index.html)</t>
+  </si>
+  <si>
+    <t>Developing new method for ecDNA identification and exploring its biomarker potential</t>
+  </si>
+  <si>
+    <t>¥ 80k</t>
+  </si>
+  <si>
     <t>service</t>
   </si>
   <si>
+    <t>2019 --- present</t>
+  </si>
+  <si>
     <t>Reviewer</t>
   </si>
   <si>
+    <t>[Briefings in Bioinformatics](https://academic.oup.com/bib), [Frontiers in Immunology](https://www.frontiersin.org/journals/immunology), [Frontiers in Oncology](https://www.frontiersin.org/journals/oncology), [Frontiers in Cell and Developmental Biology](https://www.frontiersin.org/journals/cell-and-developmental-biology)</t>
+  </si>
+  <si>
     <t>talk</t>
   </si>
   <si>
+    <t>[Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis](https://www.youtube.com/watch?v=nzAxPDTznm4)</t>
+  </si>
+  <si>
+    <t>[BioC Asia 2020](https://biocasia2020.bioconductor.org/)</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
     <t>poster</t>
   </si>
   <si>
+    <t>[Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis](https://f1000research.com/posters/9-1217)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigen presentation and tumor immunogenicity in cancer immunotherapy response prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShanghaiTech University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioForum 2019 </t>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
+  </si>
+  <si>
     <t>teaching</t>
   </si>
   <si>
+    <t>Teaching assistant, Cancer Biology</t>
+  </si>
+  <si>
+    <t>Teacher: Xue-Song Liu</t>
+  </si>
+  <si>
     <t>authors</t>
   </si>
   <si>
@@ -125,6 +209,9 @@
     <t>venue</t>
   </si>
   <si>
+    <t>mark</t>
+  </si>
+  <si>
     <t>award</t>
   </si>
   <si>
@@ -134,432 +221,269 @@
     <t>journal article</t>
   </si>
   <si>
-    <t>2021 --- present</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Experiment Research Department, [Sun Yat-sen University Cancer Center](http://english.sysucc.org.cn/)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhD in Cancer Biology</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShanghaiTech University &amp; Shanghai Institute of Biochemistry and Cell Biology, Chinese Academy of Sciences</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervisor: [Xue-Song Liu](https://slst.shanghaitech.edu.cn/lxs_en/main.htm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervisor: [Rui-Hua Xu](http://english.sysucc.org.cn/info_19.aspx?itemid=154)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012 --- 2016</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.E. in Biomedical Engineering</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Electronic Science and Technology of China</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis](https://f1000research.com/posters/9-1217)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[BioC Asia 2020](https://biocasia2020.bioconductor.org/)</t>
-  </si>
-  <si>
-    <t>[BioC Asia 2020](https://biocasia2020.bioconductor.org/)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis](https://www.youtube.com/watch?v=nzAxPDTznm4)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigen presentation and tumor immunogenicity in cancer immunotherapy response prediction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShanghaiTech University </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioForum 2019 </t>
-  </si>
-  <si>
-    <t>Shanghai, China</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teaching assistant, Cancer Biology</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShanghaiTech University</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Shixiang Wang^†^, Mingming Jia^†^, Zaoke He, Xue-Song Liu</t>
   </si>
   <si>
     <t>APOBEC3B and APOBEC mutational signature as potential predictive markers for immunotherapy response in non-small cell lung cancer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Oncogene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <t>https://www.nature.com/articles/s41388-018-0245-9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shixiang Wang, Xue-Song Liu</t>
   </si>
   <si>
     <t>The UCSCXenaTools R package: a toolkit for accessing genomics data from UCSC Xena platform, from cancer multi-omics to single-cell RNA-seq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Journal of Open Source Software</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shixiang Wang, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://joss.theoj.org/papers/10.21105/joss.01627</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Li An Cowley^†^, Xue-Song Liu</t>
   </si>
   <si>
     <t>Sex Differences in Cancer Immunotherapy Efficacy, Biomarkers, and Therapeutic Strategy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Molecules</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://www.mdpi.com/1420-3049/24/18/3214</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zaoke He^†^, Shixiang Wang^†^, Yuanyuan Shao^†^, Jing Zhang^†^, Xiaolin Wu, Yuxing Chen, Junhao Hu, Feng Zhang, Xue-Song Liu</t>
   </si>
   <si>
     <t>Ras downstream effector GGCT alleviates oncogenic stress</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>iScience</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S2589004219302639</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shixiang Wang, Jing Zhang, Zaoke He, Kai Wu, Xue‐Song Liu</t>
   </si>
   <si>
     <t>The predictive power of tumor mutational burden in lung cancer immunotherapy response is influenced by patients’ sex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shixiang Wang, Jing Zhang, Zaoke He, Kai Wu, Xue‐Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>International Journal of Cancer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/ijc.32327</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shixiang Wang, Zaoke He, Xuan Wang, Huimin Li, Xue-Song Liu</t>
   </si>
   <si>
     <t>Antigen presentation and tumor immunogenicity in cancer immunotherapy response prediction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shixiang Wang, Zaoke He, Xuan Wang, Huimin Li, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eLife</t>
   </si>
   <si>
     <t>https://elifesciences.org/articles/49020</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>eLife</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shixiang Wang, Zaoke He, Xuan Wang, Huimin Li, Tao Wu, Xiaoqin Sun, Kai Wu, Xue-Song Liu</t>
   </si>
   <si>
     <t>Can tumor mutational burden determine the most effective treatment for lung cancer patients?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shixiang Wang, Zaoke He, Xuan Wang, Huimin Li, Tao Wu, Xiaoqin Sun, Kai Wu, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Lung Cancer Management</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://www.futuremedicine.com/doi/full/10.2217/lmt-2019-0013</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shixiang Wang, Ziyu Tao, Tao Wu, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis</t>
+  </si>
+  <si>
+    <t>Bioinformatics</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bioinformatics/article/37/11/1590/5926972</t>
+  </si>
+  <si>
+    <t>Xuning Wang^†^, Shixiang Wang^†^, Yalin Han, Maolin Xu, Peng Li, Mu Ke, Zhipeng Teng, Pu Huang, Ziyan Diao, Yongfeng Yan, Qingyu Meng, Yanshen Kuang, Wei Zheng, Hongyi Liu, Xuesong Liu, Baoqing Jia</t>
+  </si>
+  <si>
+    <t>Association of CSMD1 with Tumor Mutation Burden and Other Clinical Outcomes in Gastric Cancer</t>
+  </si>
+  <si>
+    <t>International Journal of General Medicine</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8605807/</t>
+  </si>
+  <si>
+    <t>Zaoke He^†^, Tao Wu^†^, Shixiang Wang^†^, Jing Zhang^†^, Xiaoqin Sun, Ziyu Tao, Xiangyu Zhao, Huimin Li, Kai Wu, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Pan-cancer noncoding genomic analysis identifies functional CDC20 promoter mutation hotspots</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2589004221002534</t>
+  </si>
+  <si>
+    <t>Shixiang Wang, Huimin Li, Minfang Song, Ziyu Tao, Tao Wu, Zaoke He, Xiangyu Zhao, Kai Wu, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Copy number signature analysis tool and its application in prostate cancer reveals distinct mutational processes and clinical outcomes</t>
+  </si>
+  <si>
+    <t>PLoS Genetics</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1009557</t>
+  </si>
+  <si>
+    <t>Zaoke He, Xiaoqin Sun, Shixiang Wang, Dongsheng Bai, Xiangyu Zhao, Ying Han, Piliang Hao, Xue‐Song Liu</t>
+  </si>
+  <si>
+    <t>Ggct (γ‐glutamyl cyclotransferase) plays an important role in erythrocyte antioxidant defense and red blood cell survival</t>
+  </si>
+  <si>
+    <t>British Journal of Haematology</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/bjh.17775</t>
+  </si>
+  <si>
+    <t>Jianfeng Li^†^, Benben Miao^†^, Shixiang Wang^†^, Wei Dong^†^, Houshi Xu^†^, Chenchen Si^†^, Wei Wang, Songqi Duan, Jiacheng Lou, Zhiwei Bao, Hailuan Zeng, Zengzeng Yang, Wenyan Cheng, Fei Zhao, Jianming Zeng, Xue-Song Liu, Renxie Wu, Yang Shen, Zhu Chen, Saijuan Chen, Mingjie Wang, Hiplot Consortium</t>
+  </si>
+  <si>
+    <t>Hiplot: a comprehensive and easy-to-use web service for boosting publication-ready biomedical data visualization</t>
+  </si>
+  <si>
+    <t>Briefings in Bioinformatics</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bib/article-abstract/23/4/bbac261/6620876?login=false</t>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Yi Xiong^†^, Longfei Zhao^†^, Kai Gu^†^, Yin Li, Fei Zhao, Jianfeng Li, Mingjie Wang, Haitao Wang, Ziyu Tao, Tao Wu, Yichao Zheng, Xuejun Li, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>UCSCXenaShiny: an R/CRAN package for interactive analysis of UCSC Xena data</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bioinformatics/article/38/2/527/6330614?login=false</t>
+  </si>
+  <si>
+    <t>Tao Wu, Guangshuai Wang, Xuan Wang, Shixiang Wang, Xiangyu Zhao, Chenxu Wu, Wei Ning, Ziyu Tao, Fuxiang Chen, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Quantification of neoantigen-mediated immunoediting in cancer evolution</t>
+  </si>
+  <si>
+    <t>Cancer Research</t>
+  </si>
+  <si>
+    <t>https://aacrjournals.org/cancerres/article-abstract/82/12/2226/699353/Quantification-of-Neoantigen-Mediated?redirectedFrom=fulltext</t>
+  </si>
+  <si>
+    <t>Qingjian Chen, Qi-Nian Wu, Yu-Ming Rong, Shixiang Wang, Zhixiang Zuo, Long Bai, Bei Zhang, Shuqiang Yuan, Qi Zhao</t>
+  </si>
+  <si>
+    <t>Deciphering clonal dynamics and metastatic routines in a rare patient of synchronous triple-primary tumors and multiple metastases with MPTevol</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bib/article-abstract/23/5/bbac175/6590438?login=false</t>
+  </si>
+  <si>
+    <t>Ziyu Tao^†^, Shixiang Wang^†^, Chenxu Wu^†^, Tao Wu, Xiangyu Zhao, Wei Ning, Guangshuai Wang, Jinyu Wang, Jing Chen, Kaixuan Diao, Fuxiang Chen, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>The repertoire of copy number alteration signatures in human cancer</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bib/article/24/2/bbad053/7048898</t>
+  </si>
+  <si>
+    <t>Wei Ning, Tao Wu, Chenxu Wu, Shixiang Wang, Ziyu Tao, Guangshuai Wang, Xiangyu Zhao, Kaixuan Diao, Jinyu Wang, Jing Chen, Fuxiang Chen, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Accurate prediction of pan-cancer types using machine learning with minimal number of DNA methylation sites</t>
+  </si>
+  <si>
+    <t>Journal of Molecular Cell Biology</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jmcb/advance-article/doi/10.1093/jmcb/mjad023/7112097?login=false</t>
   </si>
   <si>
     <t>preprint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Xuan Wang^†^, Tao Wu^†^, Zaoke He, Huimin Li, Xiaoqin Sun, Xue-Song Liu</t>
   </si>
   <si>
     <t>Revisiting neoantigen depletion signal in the untreated cancer genome</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bioRxiv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://www.biorxiv.org/content/10.1101/2020.05.11.089540.abstract</t>
   </si>
   <si>
-    <t>Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shixiang Wang, Ziyu Tao, Tao Wu, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bioinformatics</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/bioinformatics/article/37/11/1590/5926972</t>
-  </si>
-  <si>
-    <t>Association of CSMD1 with Tumor Mutation Burden and Other Clinical Outcomes in Gastric Cancer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Journal of General Medicine</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8605807/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pan-cancer noncoding genomic analysis identifies functional CDC20 promoter mutation hotspots</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S2589004221002534</t>
-  </si>
-  <si>
-    <t>Copy number signature analysis tool and its application in prostate cancer reveals distinct mutational processes and clinical outcomes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shixiang Wang, Huimin Li, Minfang Song, Ziyu Tao, Tao Wu, Zaoke He, Xiangyu Zhao, Kai Wu, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLoS Genetics</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1009557</t>
-  </si>
-  <si>
-    <t>Ggct (γ‐glutamyl cyclotransferase) plays an important role in erythrocyte antioxidant defense and red blood cell survival</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zaoke He, Xiaoqin Sun, Shixiang Wang, Dongsheng Bai, Xiangyu Zhao, Ying Han, Piliang Hao, Xue‐Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>British Journal of Haematology</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/bjh.17775</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Shixiang Wang, Xue-Song Liu, Jianfeng Li, Qi Zhao</t>
   </si>
   <si>
     <t>ezcox: An R/CRAN Package for Cox Model Batch Processing and Visualization</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shixiang Wang, Xue-Song Liu, Jianfeng Li, Qi Zhao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>arXiv</t>
   </si>
   <si>
     <t>https://arxiv.org/abs/2110.14232</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yonglin Yi, Anqi Lin, Chaozheng Zhou, Jian Zhang^#^, Shixiang Wang^#^, Peng Luo^#^</t>
   </si>
   <si>
     <t>Onlinemeta: A Web Server For Meta-Analysis Based On R-shiny</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://www.biorxiv.org/content/10.1101/2022.04.13.488126v2.abstract</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hiplot: a comprehensive and easy-to-use web service for boosting publication-ready biomedical data visualization</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://academic.oup.com/bib/article-abstract/23/4/bbac261/6620876?login=false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The repertoire of copy number alteration signatures in human cancer</t>
   </si>
   <si>
     <t>https://www.biorxiv.org/content/10.1101/2022.11.14.516412v1.abstract</t>
-  </si>
-  <si>
-    <t>Briefings in Bioinformatics</t>
-  </si>
-  <si>
-    <t>UCSCXenaShiny: an R/CRAN package for interactive analysis of UCSC Xena data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://academic.oup.com/bioinformatics/article/38/2/527/6330614?login=false</t>
-  </si>
-  <si>
-    <t>Quantification of neoantigen-mediated immunoediting in cancer evolution</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tao Wu, Guangshuai Wang, Xuan Wang, Shixiang Wang, Xiangyu Zhao, Chenxu Wu, Wei Ning, Ziyu Tao, Fuxiang Chen, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Cancer Research</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aacrjournals.org/cancerres/article-abstract/82/12/2226/699353/Quantification-of-Neoantigen-Mediated?redirectedFrom=fulltext</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deciphering clonal dynamics and metastatic routines in a rare patient of synchronous triple-primary tumors and multiple metastases with MPTevol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qingjian Chen, Qi-Nian Wu, Yu-Ming Rong, Shixiang Wang, Zhixiang Zuo, Long Bai, Bei Zhang, Shuqiang Yuan, Qi Zhao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://academic.oup.com/bib/article-abstract/23/5/bbac175/6590438?login=false</t>
-  </si>
-  <si>
-    <t>2022 --- 2023</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>General Project, [China Postdoctoral Science Foundation](https://jj.chinapostdoctor.org.cn/website/index.html)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>¥ 80k</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developing new method for ecDNA identification and exploring its biomarker potential</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShanghaiTech University Class A Postgraduate Academic Scholarship</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervisor: Yang Xia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shixiang Wang^†^, Mingming Jia^†^, Zaoke He, Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shixiang Wang^†^, Li An Cowley^†^, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Zaoke He^†^, Shixiang Wang^†^, Yuanyuan Shao^†^, Jing Zhang^†^, Xiaolin Wu, Yuxing Chen, Junhao Hu, Feng Zhang, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Xuning Wang^†^, Shixiang Wang^†^, Yalin Han, Maolin Xu, Peng Li, Mu Ke, Zhipeng Teng, Pu Huang, Ziyan Diao, Yongfeng Yan, Qingyu Meng, Yanshen Kuang, Wei Zheng, Hongyi Liu, Xuesong Liu, Baoqing Jia</t>
-  </si>
-  <si>
-    <t>Zaoke He^†^, Tao Wu^†^, Shixiang Wang^†^, Jing Zhang^†^, Xiaoqin Sun, Ziyu Tao, Xiangyu Zhao, Huimin Li, Kai Wu, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Shixiang Wang^†^, Yi Xiong^†^, Longfei Zhao^†^, Kai Gu^†^, Yin Li, Fei Zhao, Jianfeng Li, Mingjie Wang, Haitao Wang, Ziyu Tao, Tao Wu, Yichao Zheng, Xuejun Li, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Shixiang Wang^†^, Xuan Wang^†^, Tao Wu^†^, Zaoke He, Huimin Li, Xiaoqin Sun, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Ziyu Tao^†^, Shixiang Wang^†^, Chenxu Wu^†^, Tao Wu, Xiangyu Zhao, Wei Ning, Guangshuai Wang, Jinyu Wang, Jing Chen, Kaixuan Diao, Fuxiang Chen, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Yonglin Yi, Anqi Lin, Chaozheng Zhou, Jian Zhang^#^, Shixiang Wang^#^, Peng Luo^#^</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teacher: Xue-Song Liu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Briefings in Bioinformatics](https://academic.oup.com/bib), [Frontiers in Immunology](https://www.frontiersin.org/journals/immunology), [Frontiers in Oncology](https://www.frontiersin.org/journals/oncology), [Frontiers in Cell and Developmental Biology](https://www.frontiersin.org/journals/cell-and-developmental-biology)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019 --- present</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mark</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021 Outstanding Graduate Award of Shanghai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Scholarship for Doctoral Students</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jianfeng Li^†^, Benben Miao^†^, Shixiang Wang^†^, Wei Dong^†^, Houshi Xu^†^, Chenchen Si^†^, Wei Wang, Songqi Duan, Jiacheng Lou, Zhiwei Bao, Hailuan Zeng, Zengzeng Yang, Wenyan Cheng, Fei Zhao, Jianming Zeng, Xue-Song Liu, Renxie Wu, Yang Shen, Zhu Chen, Saijuan Chen, Mingjie Wang, Hiplot Consortium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,31 +491,361 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -599,9 +853,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -609,17 +1105,61 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -898,25 +1438,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.8359375" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.3359375" customWidth="1"/>
+    <col min="4" max="4" width="19.8359375" customWidth="1"/>
+    <col min="5" max="5" width="18.3359375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="16" max="16" width="17.6640625" customWidth="1"/>
@@ -978,35 +1518,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>44392</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <v>42552</v>
@@ -1015,21 +1555,21 @@
         <v>44378</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>41153</v>
@@ -1038,18 +1578,18 @@
         <v>42552</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -1058,52 +1598,52 @@
         <v>44348</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
         <v>44166</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>44075</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>44562</v>
@@ -1112,130 +1652,131 @@
         <v>45291</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>42705</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>2020</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
       <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>2019</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>2019</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.3359375" customWidth="1"/>
+    <col min="3" max="3" width="14.3359375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.3359375" customWidth="1"/>
     <col min="9" max="9" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1244,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1253,30 +1794,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1285,24 +1826,24 @@
         <v>43216</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -1311,21 +1852,21 @@
         <v>43682</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>2019</v>
@@ -1334,21 +1875,21 @@
         <v>43712</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -1357,21 +1898,21 @@
         <v>43735</v>
       </c>
       <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -1380,24 +1921,24 @@
         <v>43784</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -1406,24 +1947,24 @@
         <v>43795</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -1432,21 +1973,21 @@
         <v>43800</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1455,24 +1996,24 @@
         <v>44121</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -1481,21 +2022,21 @@
         <v>44197</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -1504,21 +2045,21 @@
         <v>44309</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -1527,24 +2068,24 @@
         <v>44320</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -1553,21 +2094,21 @@
         <v>44470</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1576,24 +2117,24 @@
         <v>44747</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1602,24 +2143,24 @@
         <v>44576</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1628,21 +2169,21 @@
         <v>44680</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -1651,113 +2192,162 @@
         <v>44704</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C18">
-        <v>2020</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43831</v>
+        <v>2023</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44977</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C19">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D19" s="3">
-        <v>44496</v>
+        <v>45026</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="3">
-        <v>44562</v>
+        <v>2020</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43831</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C21">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44496</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22">
         <v>2022</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>44562</v>
       </c>
-      <c r="E21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" t="s">
-        <v>112</v>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="3">
+        <v>44562</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+  <sortState ref="A2:J21">
     <sortCondition ref="A2:A21"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/wsx2/cv_wsx.xlsx
+++ b/wsx2/cv_wsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10040" activeTab="1"/>
+    <workbookView windowHeight="15120"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
   <si>
     <t>type</t>
   </si>
@@ -83,10 +83,10 @@
     <t>Postdoctoral Researcher</t>
   </si>
   <si>
-    <t>Experiment Research Department, [Sun Yat-sen University Cancer Center](http://english.sysucc.org.cn/)</t>
-  </si>
-  <si>
-    <t>Supervisor: [Rui-Hua Xu](http://english.sysucc.org.cn/info_19.aspx?itemid=154)</t>
+    <t>[Experiment Research Department, Sun Yat-sen University Cancer Center](http://english.sysucc.org.cn/)</t>
+  </si>
+  <si>
+    <t>Supervisor: [Prof. Rui-Hua Xu](http://english.sysucc.org.cn/info_19.aspx?itemid=154); Cooperate with [Prof. Qi Zhao](https://seqworld.com/)</t>
   </si>
   <si>
     <t>education</t>
@@ -98,10 +98,10 @@
     <t>PhD in Cancer Biology</t>
   </si>
   <si>
-    <t>ShanghaiTech University &amp; Shanghai Institute of Biochemistry and Cell Biology, Chinese Academy of Sciences</t>
-  </si>
-  <si>
-    <t>Supervisor: [Xue-Song Liu](https://slst.shanghaitech.edu.cn/lxs_en/main.htm)</t>
+    <t>[ShanghaiTech University](https://www.shanghaitech.edu.cn/) &amp; [Shanghai Institute of Biochemistry and Cell Biology, Chinese Academy of Sciences](http://cemcs.cas.cn/)</t>
+  </si>
+  <si>
+    <t>Supervisor: [Prof. Xue-Song Liu](https://slst.shanghaitech.edu.cn/lxs_en/main.htm)</t>
   </si>
   <si>
     <t>2012 --- 2016</t>
@@ -113,13 +113,13 @@
     <t>University of Electronic Science and Technology of China</t>
   </si>
   <si>
-    <t>Supervisor: Yang Xia</t>
+    <t>Supervisor: Prof. Yang Xia</t>
   </si>
   <si>
     <t>awards</t>
   </si>
   <si>
-    <t>2021 Outstanding Graduate Award of Shanghai</t>
+    <t>2021 Outstanding Graduate Award</t>
   </si>
   <si>
     <t>ShanghaiTech University</t>
@@ -140,15 +140,27 @@
     <t>2022 --- 2023</t>
   </si>
   <si>
-    <t>General Project, [China Postdoctoral Science Foundation](https://jj.chinapostdoctor.org.cn/website/index.html)</t>
-  </si>
-  <si>
-    <t>Developing new method for ecDNA identification and exploring its biomarker potential</t>
+    <t>[China Postdoctoral Science Foundation](https://jj.chinapostdoctor.org.cn/website/index.html)</t>
+  </si>
+  <si>
+    <t>General Project</t>
   </si>
   <si>
     <t>¥ 80k</t>
   </si>
   <si>
+    <t>2024 --- 2026</t>
+  </si>
+  <si>
+    <t>[National Natural Science Foundation of China](https://www.nsfc.gov.cn/)</t>
+  </si>
+  <si>
+    <t>Young Scientists Fund</t>
+  </si>
+  <si>
+    <t>¥ 300k</t>
+  </si>
+  <si>
     <t>service</t>
   </si>
   <si>
@@ -158,7 +170,13 @@
     <t>Reviewer</t>
   </si>
   <si>
-    <t>[Briefings in Bioinformatics](https://academic.oup.com/bib), [Frontiers in Immunology](https://www.frontiersin.org/journals/immunology), [Frontiers in Oncology](https://www.frontiersin.org/journals/oncology), [Frontiers in Cell and Developmental Biology](https://www.frontiersin.org/journals/cell-and-developmental-biology)</t>
+    <t>[Briefings in Bioinformatics](https://academic.oup.com/bib), [Journal of Translational Medicine](https://translational-medicine.biomedcentral.com/), [STAR Protocols](https://www.cell.com/star-protocols/home), [Frontiers in Immunology](https://www.frontiersin.org/journals/immunology), [Frontiers in Oncology](https://www.frontiersin.org/journals/oncology), [Frontiers in Cell and Developmental Biology](https://www.frontiersin.org/journals/cell-and-developmental-biology)</t>
+  </si>
+  <si>
+    <t>Review Editor in in Cancer Immunity and Immunotherapy</t>
+  </si>
+  <si>
+    <t>[Frontiers](https://www.frontiersin.org/)</t>
   </si>
   <si>
     <t>talk</t>
@@ -200,6 +218,15 @@
     <t>Teacher: Xue-Song Liu</t>
   </si>
   <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>[Open Source Promotion Plan 2023](https://summer-ospp.ac.cn/org/prodetail/2351d0245?lang=zh&amp;list=pro)</t>
+  </si>
+  <si>
+    <t>Student: Shensuo Li</t>
+  </si>
+  <si>
     <t>authors</t>
   </si>
   <si>
@@ -428,6 +455,18 @@
     <t>https://academic.oup.com/jmcb/advance-article/doi/10.1093/jmcb/mjad023/7112097?login=false</t>
   </si>
   <si>
+    <t>Li-Zhi Luo, Sheng Li, Chen Wei, Jiao Ma, Li-Mei Qian, Yan-Xing Chen, Shi-Xiang Wang^\*^, Qi Zhao^\*^</t>
+  </si>
+  <si>
+    <t>Unveiling the interplay between mutational signatures and tumor microenvironment: a pan-cancer analysis</t>
+  </si>
+  <si>
+    <t>Frontiers in Immunology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fimmu.2023.1186357/full</t>
+  </si>
+  <si>
     <t>preprint</t>
   </si>
   <si>
@@ -455,7 +494,7 @@
     <t>https://arxiv.org/abs/2110.14232</t>
   </si>
   <si>
-    <t>Yonglin Yi, Anqi Lin, Chaozheng Zhou, Jian Zhang^#^, Shixiang Wang^#^, Peng Luo^#^</t>
+    <t>Yonglin Yi, Anqi Lin, Chaozheng Zhou, Jian Zhang^\*^, Shixiang Wang^\*^, Peng Luo^\*^</t>
   </si>
   <si>
     <t>Onlinemeta: A Web Server For Meta-Analysis Based On R-shiny</t>
@@ -465,18 +504,27 @@
   </si>
   <si>
     <t>https://www.biorxiv.org/content/10.1101/2022.11.14.516412v1.abstract</t>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Yi Xiong^†^, Yihao Zhang^†^, Haitao Wang, Minjun Chen, Jianfeng Li, Peng Luo, Yung-Hung Luo, Markus Hecht, Benjamin Frey, Udo S Gaipl, Xuejun Li, Qi Zhao, Hu Ma, Jian-Guo Zhou</t>
+  </si>
+  <si>
+    <t>TCCIA: A Comprehensive Resource for Exploring CircRNA in Cancer Immunotherapy</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2023.08.24.554049v1.abstract</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -501,38 +549,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,14 +583,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,8 +603,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +635,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,28 +679,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -629,23 +686,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,181 +708,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,24 +899,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -887,42 +917,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -951,151 +949,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,54 +1155,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1444,13 +1492,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="23.8359375" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
@@ -1661,71 +1709,82 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" customFormat="1" spans="1:11">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2">
+        <v>44927</v>
+      </c>
+      <c r="D9" s="3">
+        <v>46387</v>
+      </c>
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2">
-        <v>42705</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9"/>
+      <c r="K9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42705</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44531</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="B11">
-        <v>2020</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
         <v>55</v>
       </c>
       <c r="I12" t="s">
@@ -1735,22 +1794,75 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" t="s">
         <v>59</v>
       </c>
       <c r="I13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
         <v>35</v>
       </c>
-      <c r="J13" t="s">
-        <v>60</v>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1763,13 +1875,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="38.3359375" customWidth="1"/>
@@ -1785,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1794,30 +1906,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1826,24 +1938,24 @@
         <v>43216</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -1852,21 +1964,21 @@
         <v>43682</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>2019</v>
@@ -1875,21 +1987,21 @@
         <v>43712</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -1898,21 +2010,21 @@
         <v>43735</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -1921,24 +2033,24 @@
         <v>43784</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -1947,24 +2059,24 @@
         <v>43795</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -1973,21 +2085,21 @@
         <v>43800</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1996,24 +2108,24 @@
         <v>44121</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -2022,21 +2134,21 @@
         <v>44197</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -2045,21 +2157,21 @@
         <v>44309</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -2068,24 +2180,24 @@
         <v>44320</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -2094,21 +2206,21 @@
         <v>44470</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2117,24 +2229,24 @@
         <v>44747</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2143,24 +2255,24 @@
         <v>44576</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2169,21 +2281,21 @@
         <v>44680</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2192,21 +2304,21 @@
         <v>44704</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2215,24 +2327,24 @@
         <v>44977</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -2241,90 +2353,90 @@
         <v>45026</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C20">
-        <v>2020</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43831</v>
+        <v>2023</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45068</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C21">
-        <v>2021</v>
-      </c>
-      <c r="D21" s="3">
-        <v>44496</v>
+        <v>2020</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43831</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C22">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D22" s="3">
-        <v>44562</v>
+        <v>44496</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2333,13 +2445,59 @@
         <v>44562</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="3">
+        <v>44652</v>
+      </c>
+      <c r="E24" t="s">
         <v>140</v>
       </c>
-      <c r="I23" t="s">
-        <v>149</v>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25">
+        <v>2023</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/wsx2/cv_wsx.xlsx
+++ b/wsx2/cv_wsx.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
   <si>
     <t>type</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>[Frontiers](https://www.frontiersin.org/)</t>
+  </si>
+  <si>
+    <t>Director of [Bioinformatics Weekly Project](https://openbiox.github.io/weekly/)</t>
+  </si>
+  <si>
+    <t>Openbiox, for curation and sharing of bioinformatics knowledge and news</t>
   </si>
   <si>
     <t>talk</t>
@@ -1147,11 +1153,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1492,378 +1510,594 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="23.8359375" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.3359375" customWidth="1"/>
-    <col min="4" max="4" width="19.8359375" customWidth="1"/>
-    <col min="5" max="5" width="18.3359375" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.9375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="10.6875" customWidth="1"/>
+    <col min="5" max="5" width="134" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="11.3125" customWidth="1"/>
+    <col min="9" max="9" width="255.5625" customWidth="1"/>
+    <col min="10" max="10" width="121.75" customWidth="1"/>
+    <col min="11" max="11" width="15.1875" customWidth="1"/>
+    <col min="12" max="12" width="3.6875" customWidth="1"/>
+    <col min="13" max="13" width="6.3125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="18.5625" customWidth="1"/>
+    <col min="17" max="17" width="9.375" customWidth="1"/>
+    <col min="18" max="18" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>44392</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>42552</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>44378</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>41153</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>42552</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>2021</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>44348</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>44166</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>44075</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>44562</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>45291</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:11">
-      <c r="A9" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:18">
+      <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>44927</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>46387</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J9"/>
-      <c r="K9" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>42705</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I10" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>44531</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I11" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44440</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B12">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="5">
         <v>2020</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13">
+      <c r="J13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5">
         <v>2020</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B14">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="5">
         <v>2019</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J14" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B15">
+      <c r="J15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5">
         <v>2019</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16">
+      <c r="B17" s="5">
         <v>2023</v>
       </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1897,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1906,30 +2140,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1938,24 +2172,24 @@
         <v>43216</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -1964,21 +2198,21 @@
         <v>43682</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>2019</v>
@@ -1987,21 +2221,21 @@
         <v>43712</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -2010,21 +2244,21 @@
         <v>43735</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -2033,24 +2267,24 @@
         <v>43784</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -2059,24 +2293,24 @@
         <v>43795</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -2085,21 +2319,21 @@
         <v>43800</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -2108,24 +2342,24 @@
         <v>44121</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -2134,21 +2368,21 @@
         <v>44197</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -2157,21 +2391,21 @@
         <v>44309</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -2180,24 +2414,24 @@
         <v>44320</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -2206,21 +2440,21 @@
         <v>44470</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2229,24 +2463,24 @@
         <v>44747</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2255,24 +2489,24 @@
         <v>44576</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2281,21 +2515,21 @@
         <v>44680</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2304,21 +2538,21 @@
         <v>44704</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2327,24 +2561,24 @@
         <v>44977</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -2353,21 +2587,21 @@
         <v>45026</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -2376,21 +2610,21 @@
         <v>45068</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -2399,21 +2633,21 @@
         <v>43831</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -2422,21 +2656,21 @@
         <v>44496</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2445,21 +2679,21 @@
         <v>44562</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2468,21 +2702,21 @@
         <v>44652</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -2491,13 +2725,13 @@
         <v>45162</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/wsx2/cv_wsx.xlsx
+++ b/wsx2/cv_wsx.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsx/Documents/GitHub/cv-shixiang/wsx2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E580A0-9AB8-E541-A8D6-339034182E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15120"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
   <si>
     <t>type</t>
   </si>
@@ -260,279 +266,351 @@
     <t>APOBEC3B and APOBEC mutational signature as potential predictive markers for immunotherapy response in non-small cell lung cancer</t>
   </si>
   <si>
+    <t>https://www.nature.com/articles/s41388-018-0245-9</t>
+  </si>
+  <si>
+    <t>Shixiang Wang, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>The UCSCXenaTools R package: a toolkit for accessing genomics data from UCSC Xena platform, from cancer multi-omics to single-cell RNA-seq</t>
+  </si>
+  <si>
+    <t>https://joss.theoj.org/papers/10.21105/joss.01627</t>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Li An Cowley^†^, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Sex Differences in Cancer Immunotherapy Efficacy, Biomarkers, and Therapeutic Strategy</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1420-3049/24/18/3214</t>
+  </si>
+  <si>
+    <t>Zaoke He^†^, Shixiang Wang^†^, Yuanyuan Shao^†^, Jing Zhang^†^, Xiaolin Wu, Yuxing Chen, Junhao Hu, Feng Zhang, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Ras downstream effector GGCT alleviates oncogenic stress</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2589004219302639</t>
+  </si>
+  <si>
+    <t>Shixiang Wang, Jing Zhang, Zaoke He, Kai Wu, Xue‐Song Liu</t>
+  </si>
+  <si>
+    <t>The predictive power of tumor mutational burden in lung cancer immunotherapy response is influenced by patients’ sex</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/ijc.32327</t>
+  </si>
+  <si>
+    <t>Shixiang Wang, Zaoke He, Xuan Wang, Huimin Li, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Antigen presentation and tumor immunogenicity in cancer immunotherapy response prediction</t>
+  </si>
+  <si>
+    <t>https://elifesciences.org/articles/49020</t>
+  </si>
+  <si>
+    <t>Shixiang Wang, Zaoke He, Xuan Wang, Huimin Li, Tao Wu, Xiaoqin Sun, Kai Wu, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Can tumor mutational burden determine the most effective treatment for lung cancer patients?</t>
+  </si>
+  <si>
+    <t>https://www.futuremedicine.com/doi/full/10.2217/lmt-2019-0013</t>
+  </si>
+  <si>
+    <t>Shixiang Wang, Ziyu Tao, Tao Wu, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bioinformatics/article/37/11/1590/5926972</t>
+  </si>
+  <si>
+    <t>Xuning Wang^†^, Shixiang Wang^†^, Yalin Han, Maolin Xu, Peng Li, Mu Ke, Zhipeng Teng, Pu Huang, Ziyan Diao, Yongfeng Yan, Qingyu Meng, Yanshen Kuang, Wei Zheng, Hongyi Liu, Xuesong Liu, Baoqing Jia</t>
+  </si>
+  <si>
+    <t>Association of CSMD1 with Tumor Mutation Burden and Other Clinical Outcomes in Gastric Cancer</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8605807/</t>
+  </si>
+  <si>
+    <t>Zaoke He^†^, Tao Wu^†^, Shixiang Wang^†^, Jing Zhang^†^, Xiaoqin Sun, Ziyu Tao, Xiangyu Zhao, Huimin Li, Kai Wu, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Pan-cancer noncoding genomic analysis identifies functional CDC20 promoter mutation hotspots</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2589004221002534</t>
+  </si>
+  <si>
+    <t>Shixiang Wang, Huimin Li, Minfang Song, Ziyu Tao, Tao Wu, Zaoke He, Xiangyu Zhao, Kai Wu, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Copy number signature analysis tool and its application in prostate cancer reveals distinct mutational processes and clinical outcomes</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1009557</t>
+  </si>
+  <si>
+    <t>Zaoke He, Xiaoqin Sun, Shixiang Wang, Dongsheng Bai, Xiangyu Zhao, Ying Han, Piliang Hao, Xue‐Song Liu</t>
+  </si>
+  <si>
+    <t>Ggct (γ‐glutamyl cyclotransferase) plays an important role in erythrocyte antioxidant defense and red blood cell survival</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/bjh.17775</t>
+  </si>
+  <si>
+    <t>Jianfeng Li^†^, Benben Miao^†^, Shixiang Wang^†^, Wei Dong^†^, Houshi Xu^†^, Chenchen Si^†^, Wei Wang, Songqi Duan, Jiacheng Lou, Zhiwei Bao, Hailuan Zeng, Zengzeng Yang, Wenyan Cheng, Fei Zhao, Jianming Zeng, Xue-Song Liu, Renxie Wu, Yang Shen, Zhu Chen, Saijuan Chen, Mingjie Wang, Hiplot Consortium</t>
+  </si>
+  <si>
+    <t>Hiplot: a comprehensive and easy-to-use web service for boosting publication-ready biomedical data visualization</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bib/article-abstract/23/4/bbac261/6620876?login=false</t>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Yi Xiong^†^, Longfei Zhao^†^, Kai Gu^†^, Yin Li, Fei Zhao, Jianfeng Li, Mingjie Wang, Haitao Wang, Ziyu Tao, Tao Wu, Yichao Zheng, Xuejun Li, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>UCSCXenaShiny: an R/CRAN package for interactive analysis of UCSC Xena data</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bioinformatics/article/38/2/527/6330614?login=false</t>
+  </si>
+  <si>
+    <t>Tao Wu, Guangshuai Wang, Xuan Wang, Shixiang Wang, Xiangyu Zhao, Chenxu Wu, Wei Ning, Ziyu Tao, Fuxiang Chen, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Quantification of neoantigen-mediated immunoediting in cancer evolution</t>
+  </si>
+  <si>
+    <t>https://aacrjournals.org/cancerres/article-abstract/82/12/2226/699353/Quantification-of-Neoantigen-Mediated?redirectedFrom=fulltext</t>
+  </si>
+  <si>
+    <t>Qingjian Chen, Qi-Nian Wu, Yu-Ming Rong, Shixiang Wang, Zhixiang Zuo, Long Bai, Bei Zhang, Shuqiang Yuan, Qi Zhao</t>
+  </si>
+  <si>
+    <t>Deciphering clonal dynamics and metastatic routines in a rare patient of synchronous triple-primary tumors and multiple metastases with MPTevol</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bib/article-abstract/23/5/bbac175/6590438?login=false</t>
+  </si>
+  <si>
+    <t>Ziyu Tao^†^, Shixiang Wang^†^, Chenxu Wu^†^, Tao Wu, Xiangyu Zhao, Wei Ning, Guangshuai Wang, Jinyu Wang, Jing Chen, Kaixuan Diao, Fuxiang Chen, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>The repertoire of copy number alteration signatures in human cancer</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bib/article/24/2/bbad053/7048898</t>
+  </si>
+  <si>
+    <t>Wei Ning, Tao Wu, Chenxu Wu, Shixiang Wang, Ziyu Tao, Guangshuai Wang, Xiangyu Zhao, Kaixuan Diao, Jinyu Wang, Jing Chen, Fuxiang Chen, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Accurate prediction of pan-cancer types using machine learning with minimal number of DNA methylation sites</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jmcb/advance-article/doi/10.1093/jmcb/mjad023/7112097?login=false</t>
+  </si>
+  <si>
+    <t>Li-Zhi Luo, Sheng Li, Chen Wei, Jiao Ma, Li-Mei Qian, Yan-Xing Chen, Shi-Xiang Wang^\*^, Qi Zhao^\*^</t>
+  </si>
+  <si>
+    <t>Unveiling the interplay between mutational signatures and tumor microenvironment: a pan-cancer analysis</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fimmu.2023.1186357/full</t>
+  </si>
+  <si>
+    <t>preprint</t>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Xuan Wang^†^, Tao Wu^†^, Zaoke He, Huimin Li, Xiaoqin Sun, Xue-Song Liu</t>
+  </si>
+  <si>
+    <t>Revisiting neoantigen depletion signal in the untreated cancer genome</t>
+  </si>
+  <si>
+    <t>bioRxiv</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2020.05.11.089540.abstract</t>
+  </si>
+  <si>
+    <t>Shixiang Wang, Xue-Song Liu, Jianfeng Li, Qi Zhao</t>
+  </si>
+  <si>
+    <t>ezcox: An R/CRAN Package for Cox Model Batch Processing and Visualization</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2110.14232</t>
+  </si>
+  <si>
+    <t>Yonglin Yi, Anqi Lin, Chaozheng Zhou, Jian Zhang^\*^, Shixiang Wang^\*^, Peng Luo^\*^</t>
+  </si>
+  <si>
+    <t>Onlinemeta: A Web Server For Meta-Analysis Based On R-shiny</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2022.04.13.488126v2.abstract</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2022.11.14.516412v1.abstract</t>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Yi Xiong^†^, Yihao Zhang^†^, Haitao Wang, Minjun Chen, Jianfeng Li, Peng Luo, Yung-Hung Luo, Markus Hecht, Benjamin Frey, Udo S Gaipl, Xuejun Li, Qi Zhao, Hu Ma, Jian-Guo Zhou</t>
+  </si>
+  <si>
+    <t>TCCIA: A Comprehensive Resource for Exploring CircRNA in Cancer Immunotherapy</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2023.08.24.554049v1.abstract</t>
+  </si>
+  <si>
+    <t>Journal of Molecular Cell Biology</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Briefings in Bioinformatics</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancer Research</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bioinformatics</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>British Journal of Haematology</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLoS Genetics</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iScience</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Journal of General Medicine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lung Cancer Management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF: 2.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>eLife</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Journal of Cancer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecules</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q2, CAS Q2 IF: 4.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of Open Source Software</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Oncogene</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41388-018-0245-9</t>
-  </si>
-  <si>
-    <t>Shixiang Wang, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>The UCSCXenaTools R package: a toolkit for accessing genomics data from UCSC Xena platform, from cancer multi-omics to single-cell RNA-seq</t>
-  </si>
-  <si>
-    <t>Journal of Open Source Software</t>
-  </si>
-  <si>
-    <t>https://joss.theoj.org/papers/10.21105/joss.01627</t>
-  </si>
-  <si>
-    <t>Shixiang Wang^†^, Li An Cowley^†^, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Sex Differences in Cancer Immunotherapy Efficacy, Biomarkers, and Therapeutic Strategy</t>
-  </si>
-  <si>
-    <t>Molecules</t>
-  </si>
-  <si>
-    <t>https://www.mdpi.com/1420-3049/24/18/3214</t>
-  </si>
-  <si>
-    <t>Zaoke He^†^, Shixiang Wang^†^, Yuanyuan Shao^†^, Jing Zhang^†^, Xiaolin Wu, Yuxing Chen, Junhao Hu, Feng Zhang, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Ras downstream effector GGCT alleviates oncogenic stress</t>
-  </si>
-  <si>
-    <t>iScience</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S2589004219302639</t>
-  </si>
-  <si>
-    <t>Shixiang Wang, Jing Zhang, Zaoke He, Kai Wu, Xue‐Song Liu</t>
-  </si>
-  <si>
-    <t>The predictive power of tumor mutational burden in lung cancer immunotherapy response is influenced by patients’ sex</t>
-  </si>
-  <si>
-    <t>International Journal of Cancer</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/ijc.32327</t>
-  </si>
-  <si>
-    <t>Shixiang Wang, Zaoke He, Xuan Wang, Huimin Li, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Antigen presentation and tumor immunogenicity in cancer immunotherapy response prediction</t>
-  </si>
-  <si>
-    <t>eLife</t>
-  </si>
-  <si>
-    <t>https://elifesciences.org/articles/49020</t>
-  </si>
-  <si>
-    <t>Shixiang Wang, Zaoke He, Xuan Wang, Huimin Li, Tao Wu, Xiaoqin Sun, Kai Wu, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Can tumor mutational burden determine the most effective treatment for lung cancer patients?</t>
-  </si>
-  <si>
-    <t>Lung Cancer Management</t>
-  </si>
-  <si>
-    <t>https://www.futuremedicine.com/doi/full/10.2217/lmt-2019-0013</t>
-  </si>
-  <si>
-    <t>Shixiang Wang, Ziyu Tao, Tao Wu, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis</t>
-  </si>
-  <si>
-    <t>Bioinformatics</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/bioinformatics/article/37/11/1590/5926972</t>
-  </si>
-  <si>
-    <t>Xuning Wang^†^, Shixiang Wang^†^, Yalin Han, Maolin Xu, Peng Li, Mu Ke, Zhipeng Teng, Pu Huang, Ziyan Diao, Yongfeng Yan, Qingyu Meng, Yanshen Kuang, Wei Zheng, Hongyi Liu, Xuesong Liu, Baoqing Jia</t>
-  </si>
-  <si>
-    <t>Association of CSMD1 with Tumor Mutation Burden and Other Clinical Outcomes in Gastric Cancer</t>
-  </si>
-  <si>
-    <t>International Journal of General Medicine</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8605807/</t>
-  </si>
-  <si>
-    <t>Zaoke He^†^, Tao Wu^†^, Shixiang Wang^†^, Jing Zhang^†^, Xiaoqin Sun, Ziyu Tao, Xiangyu Zhao, Huimin Li, Kai Wu, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Pan-cancer noncoding genomic analysis identifies functional CDC20 promoter mutation hotspots</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S2589004221002534</t>
-  </si>
-  <si>
-    <t>Shixiang Wang, Huimin Li, Minfang Song, Ziyu Tao, Tao Wu, Zaoke He, Xiangyu Zhao, Kai Wu, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Copy number signature analysis tool and its application in prostate cancer reveals distinct mutational processes and clinical outcomes</t>
-  </si>
-  <si>
-    <t>PLoS Genetics</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1009557</t>
-  </si>
-  <si>
-    <t>Zaoke He, Xiaoqin Sun, Shixiang Wang, Dongsheng Bai, Xiangyu Zhao, Ying Han, Piliang Hao, Xue‐Song Liu</t>
-  </si>
-  <si>
-    <t>Ggct (γ‐glutamyl cyclotransferase) plays an important role in erythrocyte antioxidant defense and red blood cell survival</t>
-  </si>
-  <si>
-    <t>British Journal of Haematology</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/bjh.17775</t>
-  </si>
-  <si>
-    <t>Jianfeng Li^†^, Benben Miao^†^, Shixiang Wang^†^, Wei Dong^†^, Houshi Xu^†^, Chenchen Si^†^, Wei Wang, Songqi Duan, Jiacheng Lou, Zhiwei Bao, Hailuan Zeng, Zengzeng Yang, Wenyan Cheng, Fei Zhao, Jianming Zeng, Xue-Song Liu, Renxie Wu, Yang Shen, Zhu Chen, Saijuan Chen, Mingjie Wang, Hiplot Consortium</t>
-  </si>
-  <si>
-    <t>Hiplot: a comprehensive and easy-to-use web service for boosting publication-ready biomedical data visualization</t>
-  </si>
-  <si>
-    <t>Briefings in Bioinformatics</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/bib/article-abstract/23/4/bbac261/6620876?login=false</t>
-  </si>
-  <si>
-    <t>Shixiang Wang^†^, Yi Xiong^†^, Longfei Zhao^†^, Kai Gu^†^, Yin Li, Fei Zhao, Jianfeng Li, Mingjie Wang, Haitao Wang, Ziyu Tao, Tao Wu, Yichao Zheng, Xuejun Li, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>UCSCXenaShiny: an R/CRAN package for interactive analysis of UCSC Xena data</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/bioinformatics/article/38/2/527/6330614?login=false</t>
-  </si>
-  <si>
-    <t>Tao Wu, Guangshuai Wang, Xuan Wang, Shixiang Wang, Xiangyu Zhao, Chenxu Wu, Wei Ning, Ziyu Tao, Fuxiang Chen, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Quantification of neoantigen-mediated immunoediting in cancer evolution</t>
-  </si>
-  <si>
-    <t>Cancer Research</t>
-  </si>
-  <si>
-    <t>https://aacrjournals.org/cancerres/article-abstract/82/12/2226/699353/Quantification-of-Neoantigen-Mediated?redirectedFrom=fulltext</t>
-  </si>
-  <si>
-    <t>Qingjian Chen, Qi-Nian Wu, Yu-Ming Rong, Shixiang Wang, Zhixiang Zuo, Long Bai, Bei Zhang, Shuqiang Yuan, Qi Zhao</t>
-  </si>
-  <si>
-    <t>Deciphering clonal dynamics and metastatic routines in a rare patient of synchronous triple-primary tumors and multiple metastases with MPTevol</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/bib/article-abstract/23/5/bbac175/6590438?login=false</t>
-  </si>
-  <si>
-    <t>Ziyu Tao^†^, Shixiang Wang^†^, Chenxu Wu^†^, Tao Wu, Xiangyu Zhao, Wei Ning, Guangshuai Wang, Jinyu Wang, Jing Chen, Kaixuan Diao, Fuxiang Chen, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>The repertoire of copy number alteration signatures in human cancer</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/bib/article/24/2/bbad053/7048898</t>
-  </si>
-  <si>
-    <t>Wei Ning, Tao Wu, Chenxu Wu, Shixiang Wang, Ziyu Tao, Guangshuai Wang, Xiangyu Zhao, Kaixuan Diao, Jinyu Wang, Jing Chen, Fuxiang Chen, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Accurate prediction of pan-cancer types using machine learning with minimal number of DNA methylation sites</t>
-  </si>
-  <si>
-    <t>Journal of Molecular Cell Biology</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/jmcb/advance-article/doi/10.1093/jmcb/mjad023/7112097?login=false</t>
-  </si>
-  <si>
-    <t>Li-Zhi Luo, Sheng Li, Chen Wei, Jiao Ma, Li-Mei Qian, Yan-Xing Chen, Shi-Xiang Wang^\*^, Qi Zhao^\*^</t>
-  </si>
-  <si>
-    <t>Unveiling the interplay between mutational signatures and tumor microenvironment: a pan-cancer analysis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q1, IF: 9.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2 IF: 6.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q1, IF: 7.4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q1, IF: 9.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Frontiers in Immunology</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/articles/10.3389/fimmu.2023.1186357/full</t>
-  </si>
-  <si>
-    <t>preprint</t>
-  </si>
-  <si>
-    <t>Shixiang Wang^†^, Xuan Wang^†^, Tao Wu^†^, Zaoke He, Huimin Li, Xiaoqin Sun, Xue-Song Liu</t>
-  </si>
-  <si>
-    <t>Revisiting neoantigen depletion signal in the untreated cancer genome</t>
-  </si>
-  <si>
-    <t>bioRxiv</t>
-  </si>
-  <si>
-    <t>https://www.biorxiv.org/content/10.1101/2020.05.11.089540.abstract</t>
-  </si>
-  <si>
-    <t>Shixiang Wang, Xue-Song Liu, Jianfeng Li, Qi Zhao</t>
-  </si>
-  <si>
-    <t>ezcox: An R/CRAN Package for Cox Model Batch Processing and Visualization</t>
-  </si>
-  <si>
-    <t>arXiv</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2110.14232</t>
-  </si>
-  <si>
-    <t>Yonglin Yi, Anqi Lin, Chaozheng Zhou, Jian Zhang^\*^, Shixiang Wang^\*^, Peng Luo^\*^</t>
-  </si>
-  <si>
-    <t>Onlinemeta: A Web Server For Meta-Analysis Based On R-shiny</t>
-  </si>
-  <si>
-    <t>https://www.biorxiv.org/content/10.1101/2022.04.13.488126v2.abstract</t>
-  </si>
-  <si>
-    <t>https://www.biorxiv.org/content/10.1101/2022.11.14.516412v1.abstract</t>
-  </si>
-  <si>
-    <t>Shixiang Wang^†^, Yi Xiong^†^, Yihao Zhang^†^, Haitao Wang, Minjun Chen, Jianfeng Li, Peng Luo, Yung-Hung Luo, Markus Hecht, Benjamin Frey, Udo S Gaipl, Xuejun Li, Qi Zhao, Hu Ma, Jian-Guo Zhou</t>
-  </si>
-  <si>
-    <t>TCCIA: A Comprehensive Resource for Exploring CircRNA in Cancer Immunotherapy</t>
-  </si>
-  <si>
-    <t>https://www.biorxiv.org/content/10.1101/2023.08.24.554049v1.abstract</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 8.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 8.4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 14.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q1, IF: 13.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q3,, IF: 7.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 8.6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 8.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 6.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q2, CAS Q4, IF: 2.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q3, IF: 7.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -545,361 +623,37 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -907,253 +661,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1170,62 +682,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1504,40 +973,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.9375" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="10.6875" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="134" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
-    <col min="8" max="8" width="11.3125" customWidth="1"/>
-    <col min="9" max="9" width="255.5625" customWidth="1"/>
-    <col min="10" max="10" width="121.75" customWidth="1"/>
-    <col min="11" max="11" width="15.1875" customWidth="1"/>
-    <col min="12" max="12" width="3.6875" customWidth="1"/>
-    <col min="13" max="13" width="6.3125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="255.5" customWidth="1"/>
+    <col min="10" max="10" width="121.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
     <col min="14" max="14" width="6" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="18.5625" customWidth="1"/>
-    <col min="17" max="17" width="9.375" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1627,7 +1096,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -1661,7 +1130,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1695,7 +1164,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1725,7 +1194,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1755,7 +1224,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1785,7 +1254,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1819,7 +1288,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" customFormat="1" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -1853,7 +1322,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -1885,7 +1354,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1917,7 +1386,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1949,7 +1418,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -1979,25 +1448,29 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -2007,29 +1480,25 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -2039,7 +1508,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -2069,7 +1538,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -2100,33 +1569,33 @@
       <c r="R17" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="38.3359375" customWidth="1"/>
-    <col min="3" max="3" width="14.3359375" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.3359375" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +1627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -2174,22 +1643,22 @@
       <c r="E2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -2198,21 +1667,21 @@
         <v>43682</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>2019</v>
@@ -2221,21 +1690,24 @@
         <v>43712</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -2244,21 +1716,24 @@
         <v>43735</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -2267,24 +1742,24 @@
         <v>43784</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -2293,24 +1768,24 @@
         <v>43795</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -2319,21 +1794,24 @@
         <v>43800</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -2342,24 +1820,24 @@
         <v>44121</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -2368,21 +1846,24 @@
         <v>44197</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -2391,21 +1872,24 @@
         <v>44309</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
+        <v>107</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -2414,24 +1898,24 @@
         <v>44320</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" t="s">
-        <v>82</v>
+        <v>110</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -2440,21 +1924,24 @@
         <v>44470</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2463,24 +1950,24 @@
         <v>44747</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" t="s">
-        <v>82</v>
+        <v>116</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2489,24 +1976,24 @@
         <v>44576</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
+        <v>119</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2515,21 +2002,24 @@
         <v>44680</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
+        <v>122</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2538,21 +2028,24 @@
         <v>44704</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2561,24 +2054,24 @@
         <v>44977</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" t="s">
         <v>129</v>
       </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -2587,21 +2080,24 @@
         <v>45026</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" t="s">
-        <v>146</v>
+        <v>131</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -2610,21 +2106,24 @@
         <v>45068</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -2633,21 +2132,21 @@
         <v>43831</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -2656,21 +2155,21 @@
         <v>44496</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2679,21 +2178,21 @@
         <v>44562</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2702,21 +2201,21 @@
         <v>44652</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -2725,21 +2224,21 @@
         <v>45162</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
     <sortCondition ref="A2:A21"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/wsx2/cv_wsx.xlsx
+++ b/wsx2/cv_wsx.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsx/Documents/GitHub/cv-shixiang/wsx2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E580A0-9AB8-E541-A8D6-339034182E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="190">
   <si>
     <t>type</t>
   </si>
@@ -203,24 +197,30 @@
     <t>Online</t>
   </si>
   <si>
+    <t>Machine learning-based extrachromosomal DNA identification in large-scale cohorts reveals its clinical implications in cancer</t>
+  </si>
+  <si>
+    <t>中南大学</t>
+  </si>
+  <si>
+    <t>湘雅 中德学术研讨会</t>
+  </si>
+  <si>
     <t>poster</t>
   </si>
   <si>
+    <t xml:space="preserve">Antigen presentation and tumor immunogenicity in cancer immunotherapy response prediction </t>
+  </si>
+  <si>
+    <t>BioForum 2019</t>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
+  </si>
+  <si>
     <t>[Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis](https://f1000research.com/posters/9-1217)</t>
   </si>
   <si>
-    <t xml:space="preserve">Antigen presentation and tumor immunogenicity in cancer immunotherapy response prediction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShanghaiTech University </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioForum 2019 </t>
-  </si>
-  <si>
-    <t>Shanghai, China</t>
-  </si>
-  <si>
     <t>teaching</t>
   </si>
   <si>
@@ -266,6 +266,12 @@
     <t>APOBEC3B and APOBEC mutational signature as potential predictive markers for immunotherapy response in non-small cell lung cancer</t>
   </si>
   <si>
+    <t>Oncogene</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q1, IF: 9.9</t>
+  </si>
+  <si>
     <t>https://www.nature.com/articles/s41388-018-0245-9</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
     <t>The UCSCXenaTools R package: a toolkit for accessing genomics data from UCSC Xena platform, from cancer multi-omics to single-cell RNA-seq</t>
   </si>
   <si>
+    <t>Journal of Open Source Software</t>
+  </si>
+  <si>
     <t>https://joss.theoj.org/papers/10.21105/joss.01627</t>
   </si>
   <si>
@@ -284,6 +293,12 @@
     <t>Sex Differences in Cancer Immunotherapy Efficacy, Biomarkers, and Therapeutic Strategy</t>
   </si>
   <si>
+    <t>Molecules</t>
+  </si>
+  <si>
+    <t>JCR Q2, CAS Q2 IF: 4.9</t>
+  </si>
+  <si>
     <t>https://www.mdpi.com/1420-3049/24/18/3214</t>
   </si>
   <si>
@@ -293,6 +308,12 @@
     <t>Ras downstream effector GGCT alleviates oncogenic stress</t>
   </si>
   <si>
+    <t>iScience</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2 IF: 6.1</t>
+  </si>
+  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S2589004219302639</t>
   </si>
   <si>
@@ -302,6 +323,12 @@
     <t>The predictive power of tumor mutational burden in lung cancer immunotherapy response is influenced by patients’ sex</t>
   </si>
   <si>
+    <t>International Journal of Cancer</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q1, IF: 7.4</t>
+  </si>
+  <si>
     <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/ijc.32327</t>
   </si>
   <si>
@@ -311,6 +338,12 @@
     <t>Antigen presentation and tumor immunogenicity in cancer immunotherapy response prediction</t>
   </si>
   <si>
+    <t>eLife</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q1, IF: 9.3</t>
+  </si>
+  <si>
     <t>https://elifesciences.org/articles/49020</t>
   </si>
   <si>
@@ -320,6 +353,12 @@
     <t>Can tumor mutational burden determine the most effective treatment for lung cancer patients?</t>
   </si>
   <si>
+    <t>Lung Cancer Management</t>
+  </si>
+  <si>
+    <t>IF: 2.8</t>
+  </si>
+  <si>
     <t>https://www.futuremedicine.com/doi/full/10.2217/lmt-2019-0013</t>
   </si>
   <si>
@@ -329,6 +368,12 @@
     <t>Sigflow: an automated and comprehensive pipeline for cancer genome mutational signature analysis</t>
   </si>
   <si>
+    <t>Bioinformatics</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q3, IF: 7.3</t>
+  </si>
+  <si>
     <t>https://academic.oup.com/bioinformatics/article/37/11/1590/5926972</t>
   </si>
   <si>
@@ -338,6 +383,12 @@
     <t>Association of CSMD1 with Tumor Mutation Burden and Other Clinical Outcomes in Gastric Cancer</t>
   </si>
   <si>
+    <t>International Journal of General Medicine</t>
+  </si>
+  <si>
+    <t>JCR Q2, CAS Q4, IF: 2.5</t>
+  </si>
+  <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8605807/</t>
   </si>
   <si>
@@ -347,6 +398,9 @@
     <t>Pan-cancer noncoding genomic analysis identifies functional CDC20 promoter mutation hotspots</t>
   </si>
   <si>
+    <t>JCR Q1, CAS Q2, IF: 6.1</t>
+  </si>
+  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S2589004221002534</t>
   </si>
   <si>
@@ -356,6 +410,12 @@
     <t>Copy number signature analysis tool and its application in prostate cancer reveals distinct mutational processes and clinical outcomes</t>
   </si>
   <si>
+    <t>PLoS Genetics</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 8.2</t>
+  </si>
+  <si>
     <t>https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1009557</t>
   </si>
   <si>
@@ -365,6 +425,12 @@
     <t>Ggct (γ‐glutamyl cyclotransferase) plays an important role in erythrocyte antioxidant defense and red blood cell survival</t>
   </si>
   <si>
+    <t>British Journal of Haematology</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 8.6</t>
+  </si>
+  <si>
     <t>https://onlinelibrary.wiley.com/doi/full/10.1111/bjh.17775</t>
   </si>
   <si>
@@ -374,6 +440,12 @@
     <t>Hiplot: a comprehensive and easy-to-use web service for boosting publication-ready biomedical data visualization</t>
   </si>
   <si>
+    <t>Briefings in Bioinformatics</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 14.0</t>
+  </si>
+  <si>
     <t>https://academic.oup.com/bib/article-abstract/23/4/bbac261/6620876?login=false</t>
   </si>
   <si>
@@ -383,6 +455,9 @@
     <t>UCSCXenaShiny: an R/CRAN package for interactive analysis of UCSC Xena data</t>
   </si>
   <si>
+    <t>JCR Q1, CAS Q3,, IF: 7.3</t>
+  </si>
+  <si>
     <t>https://academic.oup.com/bioinformatics/article/38/2/527/6330614?login=false</t>
   </si>
   <si>
@@ -392,6 +467,12 @@
     <t>Quantification of neoantigen-mediated immunoediting in cancer evolution</t>
   </si>
   <si>
+    <t>Cancer Research</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q1, IF: 13.3</t>
+  </si>
+  <si>
     <t>https://aacrjournals.org/cancerres/article-abstract/82/12/2226/699353/Quantification-of-Neoantigen-Mediated?redirectedFrom=fulltext</t>
   </si>
   <si>
@@ -419,6 +500,12 @@
     <t>Accurate prediction of pan-cancer types using machine learning with minimal number of DNA methylation sites</t>
   </si>
   <si>
+    <t>Journal of Molecular Cell Biology</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 8.4</t>
+  </si>
+  <si>
     <t>https://academic.oup.com/jmcb/advance-article/doi/10.1093/jmcb/mjad023/7112097?login=false</t>
   </si>
   <si>
@@ -428,9 +515,36 @@
     <t>Unveiling the interplay between mutational signatures and tumor microenvironment: a pan-cancer analysis</t>
   </si>
   <si>
+    <t>Frontiers in Immunology</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 8.8</t>
+  </si>
+  <si>
     <t>https://www.frontiersin.org/articles/10.3389/fimmu.2023.1186357/full</t>
   </si>
   <si>
+    <t>Shixiang Wang^†^, Yi Xiong^†^, Yihao Zhang^†^, Haitao Wang, Minjun Chen, Jianfeng Li, Peng Luo, Yung-Hung Luo, Markus Hecht, Benjamin Frey, Udo S Gaipl, Xuejun Li, Qi Zhao, Hu Ma, Jian-Guo Zhou</t>
+  </si>
+  <si>
+    <t>TCCIA: A Comprehensive Resource for Exploring CircRNA in Cancer Immunotherapy</t>
+  </si>
+  <si>
+    <t>Journal for ImmunoTherapy of Cancer (accepted)</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q2, IF: 10.9</t>
+  </si>
+  <si>
+    <t>Shixiang Wang^†^, Chen-Yi Wu^†^, Ming-Ming He^†^, Jia-Xin Yong^†^, Yan-Xing Chen, Li-Mei Qian, Jin-Ling Zhang, Zhao-Lei Zeng, Rui-Hua Xu, Feng Wang, Qi Zhao</t>
+  </si>
+  <si>
+    <t>Nature Communications (accepted)</t>
+  </si>
+  <si>
+    <t>JCR Q1, CAS Q1, IF: 16.6</t>
+  </si>
+  <si>
     <t>preprint</t>
   </si>
   <si>
@@ -470,147 +584,21 @@
     <t>https://www.biorxiv.org/content/10.1101/2022.11.14.516412v1.abstract</t>
   </si>
   <si>
-    <t>Shixiang Wang^†^, Yi Xiong^†^, Yihao Zhang^†^, Haitao Wang, Minjun Chen, Jianfeng Li, Peng Luo, Yung-Hung Luo, Markus Hecht, Benjamin Frey, Udo S Gaipl, Xuejun Li, Qi Zhao, Hu Ma, Jian-Guo Zhou</t>
-  </si>
-  <si>
-    <t>TCCIA: A Comprehensive Resource for Exploring CircRNA in Cancer Immunotherapy</t>
-  </si>
-  <si>
     <t>https://www.biorxiv.org/content/10.1101/2023.08.24.554049v1.abstract</t>
-  </si>
-  <si>
-    <t>Journal of Molecular Cell Biology</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Briefings in Bioinformatics</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancer Research</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bioinformatics</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>British Journal of Haematology</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLoS Genetics</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>iScience</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Journal of General Medicine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lung Cancer Management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF: 2.8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>eLife</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Journal of Cancer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Molecules</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q2, CAS Q2 IF: 4.9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Journal of Open Source Software</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oncogene</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q1, IF: 9.9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q2 IF: 6.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q1, IF: 7.4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q1, IF: 9.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frontiers in Immunology</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q2, IF: 8.8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q2, IF: 8.4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q2, IF: 14.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q1, IF: 13.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q3,, IF: 7.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q2, IF: 8.6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q2, IF: 8.2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q2, IF: 6.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q2, CAS Q4, IF: 2.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCR Q1, CAS Q3, IF: 7.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -623,37 +611,361 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -661,15 +973,258 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -682,19 +1237,62 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -973,19 +1571,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -993,614 +1591,647 @@
     <col min="5" max="5" width="134" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.3359375" customWidth="1"/>
     <col min="9" max="9" width="255.5" customWidth="1"/>
     <col min="10" max="10" width="121.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" customWidth="1"/>
     <col min="12" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.3359375" customWidth="1"/>
     <col min="14" max="14" width="6" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
     <col min="16" max="16" width="18.5" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.3359375" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>44392</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>42552</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>44378</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>41153</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>42552</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>2021</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>44348</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>44166</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>44075</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>44562</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>45291</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>44927</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>46387</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>42705</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>44531</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>44440</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>2020</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="5">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="6">
         <v>2019</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="B16" s="6">
         <v>2020</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6">
         <v>2019</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="B18" s="6">
         <v>2023</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.3359375" customWidth="1"/>
+    <col min="3" max="3" width="14.3359375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.3359375" customWidth="1"/>
+    <col min="7" max="7" width="19.8359375" customWidth="1"/>
     <col min="9" max="9" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1609,30 +2240,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1641,24 +2272,24 @@
         <v>43216</v>
       </c>
       <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>2019</v>
@@ -1667,21 +2298,21 @@
         <v>43682</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>166</v>
+        <v>87</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>2019</v>
@@ -1690,24 +2321,24 @@
         <v>43712</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>165</v>
+        <v>91</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>2019</v>
@@ -1716,24 +2347,24 @@
         <v>43735</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>169</v>
+        <v>96</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -1742,24 +2373,24 @@
         <v>43784</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>170</v>
+        <v>101</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -1768,24 +2399,24 @@
         <v>43795</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>171</v>
+        <v>106</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -1794,24 +2425,24 @@
         <v>43800</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>161</v>
+        <v>111</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1820,24 +2451,24 @@
         <v>44121</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>182</v>
+        <v>116</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -1846,24 +2477,24 @@
         <v>44197</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -1872,24 +2503,24 @@
         <v>44309</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>180</v>
+        <v>126</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -1898,24 +2529,24 @@
         <v>44320</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>179</v>
+        <v>130</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -1924,24 +2555,24 @@
         <v>44470</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>178</v>
+        <v>135</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1950,24 +2581,24 @@
         <v>44747</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>175</v>
+        <v>140</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1976,24 +2607,24 @@
         <v>44576</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>177</v>
+        <v>145</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2002,24 +2633,24 @@
         <v>44680</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>176</v>
+        <v>149</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2028,24 +2659,24 @@
         <v>44704</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>175</v>
+        <v>154</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2054,24 +2685,24 @@
         <v>44977</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -2080,24 +2711,24 @@
         <v>45026</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -2106,139 +2737,185 @@
         <v>45068</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21">
+        <v>2024</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45292</v>
+      </c>
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="8" t="s">
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
         <v>173</v>
       </c>
-      <c r="I20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21">
+      <c r="C22">
+        <v>2024</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45293</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23">
         <v>2020</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D23" s="2">
         <v>43831</v>
       </c>
-      <c r="E21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22">
+      <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24">
         <v>2021</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D24" s="3">
         <v>44496</v>
       </c>
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23">
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25">
         <v>2022</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D25" s="3">
         <v>44562</v>
       </c>
-      <c r="E23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24">
+      <c r="E25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26">
         <v>2022</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D26" s="3">
         <v>44652</v>
       </c>
-      <c r="E24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" t="s">
-        <v>139</v>
-      </c>
-      <c r="I24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25">
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27">
         <v>2023</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D27" s="3">
         <v>45162</v>
       </c>
-      <c r="E25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" t="s">
-        <v>151</v>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+  <sortState ref="A2:J21">
     <sortCondition ref="A2:A21"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>